--- a/wsb_log.xlsx
+++ b/wsb_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1069,6 +1069,650 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CUZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>JUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PSTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NKLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ARKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>YUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>FUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>THC</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>DKNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>VXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ROLL</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>LIFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>PSTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NKLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ARKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>YUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>FUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>THC</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>DKNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>VXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ROLL</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>XLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>QQQJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>TA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wsb_log.xlsx
+++ b/wsb_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A183"/>
+  <dimension ref="A1:A377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1713,6 +1713,1170 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PSTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>NVTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>MSOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>UVXY</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>WORK</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BILL</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>SNOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>DOOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>FCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>IMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>FUBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>SUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>NET</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>QQQJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>PACB</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>SRPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ROKU</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>CCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ARKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>PSTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>WORK</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>NVTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>MSOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>UVXY</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>BILL</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>SNOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>DOOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>FCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>IMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>FUBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>SUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>NET</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>QQQJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>PACB</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>SRPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ROKU</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>TWTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>CCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>SLV</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ARKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>PBJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wsb_log.xlsx
+++ b/wsb_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A377"/>
+  <dimension ref="A1:A533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -2877,6 +2877,942 @@
         <v>1</v>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>CCIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>UVXY</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ITM</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>TOPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>MAGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>PSTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>PLAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>TDOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>LEAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>CRSP</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>QCLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>PSTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>GAIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>HAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>TELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>HES</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>SPCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>CHWY</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>NEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>TLRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>MAX</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>HUGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>FCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>BBBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>PRNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wsb_log.xlsx
+++ b/wsb_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A533"/>
+  <dimension ref="A1:A613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -3813,6 +3813,486 @@
         <v>1</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>SPCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>PICK</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>WBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>ITM</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>NEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>SAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>DEEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>HAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>NYT</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>PBW</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>TLRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>JOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>ARKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>EVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>REAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>HOPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>MMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>THD</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wsb_log.xlsx
+++ b/wsb_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A613"/>
+  <dimension ref="A1:A713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -4293,6 +4293,606 @@
         <v>1</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>IMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>APHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>OC</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>BBBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>NYT</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>SPCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>WANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>PICK</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>TLRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>JACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>BOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>TSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>CRSP</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>EDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>ARKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>FMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>APT</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wsb_log.xlsx
+++ b/wsb_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A713"/>
+  <dimension ref="A1:A921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -4893,6 +4893,1254 @@
         <v>2</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>TAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>ONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>TLRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>SAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>FCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>MOMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>CRSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>APHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>PSTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>FAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>PTON</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>GROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>HUGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>HOPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>AUPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>WFH</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>NEXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>WANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>ITM</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>AUPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>WANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>ITM</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>AUPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>ARKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>WANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wsb_log.xlsx
+++ b/wsb_log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A921"/>
+  <dimension ref="A1:A1095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -6141,6 +6141,1050 @@
         <v>1</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>FUND</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>SNAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>FB</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>CRSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>NET</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>SPCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>SHOP</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>DBX</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>DPZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>TGTX</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>STAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>TURN</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>ICLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>MSOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>UVXY</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>APHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>SNOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>BILI</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>LEAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>IQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>TLRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>DKNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>CORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>CRSP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>FUBO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>SAVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>BIOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>ITM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>FAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>EPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>LUV</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>APHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>TLRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>BIDU</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>SNDL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>ITM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>CRSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>ACB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>SLV</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>OCGN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>MARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>EPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>CRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>SWAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>ZOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>BEAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
